--- a/03. 엑셀 자동화/total.xlsx
+++ b/03. 엑셀 자동화/total.xlsx
@@ -434,10 +434,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>가격</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -458,6 +463,9 @@
       <c r="D2" t="n">
         <v>4</v>
       </c>
+      <c r="E2" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -473,6 +481,9 @@
       </c>
       <c r="D3" t="n">
         <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="4">
@@ -490,6 +501,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>350000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -506,6 +520,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>160000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,6 +539,9 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
+      <c r="E6" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -690,6 +710,9 @@
       <c r="D15" t="n">
         <v>2</v>
       </c>
+      <c r="E15" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -705,6 +728,9 @@
       </c>
       <c r="D16" t="n">
         <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="17">
@@ -722,6 +748,9 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
+      <c r="E17" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +767,9 @@
       <c r="D18" t="n">
         <v>3</v>
       </c>
+      <c r="E18" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -754,6 +786,9 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
+      <c r="E19" t="n">
+        <v>700000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -770,6 +805,9 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
+      <c r="E20" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -786,6 +824,9 @@
       <c r="D21" t="n">
         <v>3</v>
       </c>
+      <c r="E21" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -801,6 +842,9 @@
       </c>
       <c r="D22" t="n">
         <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1750000</v>
       </c>
     </row>
   </sheetData>

--- a/03. 엑셀 자동화/total.xlsx
+++ b/03. 엑셀 자동화/total.xlsx
@@ -545,7 +545,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>

--- a/03. 엑셀 자동화/total.xlsx
+++ b/03. 엑셀 자동화/total.xlsx
@@ -430,8 +430,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>순번</t>
